--- a/data/trans_bre/P75-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P75-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 9,71</t>
+          <t>-2,35; 9,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,6</t>
+          <t>-4,61; 5,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 41,23</t>
+          <t>-8,67; 37,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 37,81</t>
+          <t>-22,74; 38,73</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 6,8</t>
+          <t>-3,33; 7,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 5,79</t>
+          <t>-2,97; 6,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 26,24</t>
+          <t>-10,85; 26,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 41,03</t>
+          <t>-15,46; 43,03</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 5,53</t>
+          <t>-4,8; 5,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,97</t>
+          <t>-1,98; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 19,56</t>
+          <t>-14,18; 19,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 50,62</t>
+          <t>-13,22; 51,2</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 5,6</t>
+          <t>-5,06; 6,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,0</t>
+          <t>-2,99; 5,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 24,73</t>
+          <t>-17,59; 25,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 42,48</t>
+          <t>-18,96; 44,3</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 7,11</t>
+          <t>-4,8; 7,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,09</t>
+          <t>-5,16; 4,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 37,43</t>
+          <t>-18,45; 37,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 39,55</t>
+          <t>-33,9; 40,52</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 3,69</t>
+          <t>-6,71; 3,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 4,04</t>
+          <t>-3,05; 3,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 19,61</t>
+          <t>-26,0; 18,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 39,68</t>
+          <t>-22,28; 39,88</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,69</t>
+          <t>-1,81; 2,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,36</t>
+          <t>-1,18; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 10,66</t>
+          <t>-6,58; 10,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 17,55</t>
+          <t>-7,82; 17,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P75-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P75-Edad-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 9,16</t>
+          <t>-2,54; 9,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,73</t>
+          <t>-4,61; 5,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 37,6</t>
+          <t>-9,16; 38,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 38,73</t>
+          <t>-23,23; 40,19</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 7,04</t>
+          <t>-3,75; 6,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,02</t>
+          <t>-2,67; 6,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 26,95</t>
+          <t>-12,43; 26,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 43,03</t>
+          <t>-14,27; 42,16</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 5,53</t>
+          <t>-4,55; 5,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,97</t>
+          <t>-2,46; 5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 19,99</t>
+          <t>-13,68; 20,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 51,2</t>
+          <t>-16,39; 47,7</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 6,0</t>
+          <t>-5,4; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,14</t>
+          <t>-2,99; 4,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 25,81</t>
+          <t>-18,88; 23,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 44,3</t>
+          <t>-18,31; 41,27</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 7,37</t>
+          <t>-4,16; 7,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,03</t>
+          <t>-4,69; 4,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 37,9</t>
+          <t>-16,83; 38,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 40,52</t>
+          <t>-32,53; 44,09</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,51</t>
+          <t>-6,32; 3,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,95</t>
+          <t>-3,26; 4,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 18,41</t>
+          <t>-25,49; 17,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 39,88</t>
+          <t>-23,63; 40,74</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,73</t>
+          <t>-1,67; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,33</t>
+          <t>-0,91; 2,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 10,99</t>
+          <t>-5,99; 11,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 17,85</t>
+          <t>-6,2; 18,54</t>
         </is>
       </c>
     </row>
